--- a/src/test/DataSheets/DataDrive.xlsx
+++ b/src/test/DataSheets/DataDrive.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="120" windowWidth="8580" windowHeight="1080"/>
+    <workbookView xWindow="384" yWindow="432" windowWidth="8580" windowHeight="1116"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
